--- a/Data/Bank_churn/Images/KNN_ValidationCurve_N.xlsx
+++ b/Data/Bank_churn/Images/KNN_ValidationCurve_N.xlsx
@@ -468,13 +468,13 @@
         <v>0.9</v>
       </c>
       <c r="C2" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="D2" t="n">
-        <v>1.65</v>
+        <v>0.06</v>
       </c>
       <c r="E2" t="n">
-        <v>18.84</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>0.87</v>
       </c>
       <c r="C3" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D3" t="n">
-        <v>1.66</v>
+        <v>0.06</v>
       </c>
       <c r="E3" t="n">
-        <v>23.53</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="C4" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D4" t="n">
-        <v>1.67</v>
+        <v>0.06</v>
       </c>
       <c r="E4" t="n">
-        <v>26.08</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C5" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D5" t="n">
-        <v>1.56</v>
+        <v>0.06</v>
       </c>
       <c r="E5" t="n">
-        <v>27.59</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C6" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D6" t="n">
-        <v>1.54</v>
+        <v>0.06</v>
       </c>
       <c r="E6" t="n">
-        <v>27.7</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>22</v>
       </c>
       <c r="B7" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="C7" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="D7" t="n">
-        <v>1.57</v>
+        <v>0.06</v>
       </c>
       <c r="E7" t="n">
-        <v>30.49</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="C8" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="D8" t="n">
-        <v>1.59</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>32.82</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>30</v>
       </c>
       <c r="B9" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="C9" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="D9" t="n">
-        <v>1.69</v>
+        <v>0.09</v>
       </c>
       <c r="E9" t="n">
-        <v>33.05</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>34</v>
       </c>
       <c r="B10" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="C10" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="D10" t="n">
-        <v>1.71</v>
+        <v>0.08</v>
       </c>
       <c r="E10" t="n">
-        <v>34.32</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="C11" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="D11" t="n">
-        <v>1.89</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>34.41</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Bank_churn/Images/KNN_ValidationCurve_N.xlsx
+++ b/Data/Bank_churn/Images/KNN_ValidationCurve_N.xlsx
@@ -491,7 +491,7 @@
         <v>0.06</v>
       </c>
       <c r="E3" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0.06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0.06</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0.06</v>
       </c>
       <c r="E6" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>0.83</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>0.83</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E8" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
@@ -590,10 +590,10 @@
         <v>0.83</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="10">
@@ -607,7 +607,7 @@
         <v>0.83</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>0.57</v>
@@ -624,10 +624,10 @@
         <v>0.83</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E11" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
